--- a/Documentation/User Stories.xlsx
+++ b/Documentation/User Stories.xlsx
@@ -14,22 +14,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
   <si>
+    <t>Actors</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
-    <t>Actors</t>
+    <t>Safety Coordinator</t>
+  </si>
+  <si>
+    <t>Lab Supervisors</t>
+  </si>
+  <si>
+    <t>Safety Committee members</t>
   </si>
   <si>
     <t>Actor</t>
-  </si>
-  <si>
-    <t>Safety Coordinator</t>
-  </si>
-  <si>
-    <t>Lab Supervisors</t>
-  </si>
-  <si>
-    <t>Safety Committee members</t>
   </si>
   <si>
     <t>Priority</t>
@@ -165,11 +165,11 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -212,19 +212,19 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -458,11 +458,11 @@
   </cols>
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
@@ -500,13 +500,13 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>12.0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -514,13 +514,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>13.0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -528,13 +528,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>14.0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -542,13 +542,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>15.0</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -556,13 +556,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>16.0</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -570,13 +570,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>18.0</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -584,11 +584,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -596,13 +596,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>23.0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -610,13 +610,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>25.0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -624,13 +624,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>28.0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -638,13 +638,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>17.0</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -652,13 +652,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>22.0</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -666,13 +666,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>1.0</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -680,13 +680,13 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>2.0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -694,13 +694,13 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>5.0</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -708,13 +708,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>6.0</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -722,13 +722,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>8.0</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -736,13 +736,13 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>9.0</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -750,13 +750,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>10.0</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -764,13 +764,13 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>19.0</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -778,13 +778,13 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>20.0</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -792,13 +792,13 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>21.0</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -806,13 +806,13 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>3.0</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -820,13 +820,13 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>4.0</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -834,13 +834,13 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>7.0</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -848,13 +848,13 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>11.0</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -862,13 +862,13 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>24.0</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -876,13 +876,13 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>26.0</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -890,13 +890,13 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>27.0</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -3808,23 +3808,23 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
